--- a/biology/Botanique/Qualea_rosea/Qualea_rosea.xlsx
+++ b/biology/Botanique/Qualea_rosea/Qualea_rosea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Qualea rosea, le gonfolo rose, connu aussi sous le nom vernaculaire gonfolo, est un arbre de la famille des Vochysiaceae présent en Amérique du Sud.
 Qualea rosea Aubl. est l'espèce type du genre Qualea Aubl..
@@ -512,9 +524,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Qualea rosea a le statut d'espèce déterminante ZNIEFF en Guyane[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Qualea rosea a le statut d'espèce déterminante ZNIEFF en Guyane.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Noms connus du bois</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de Quelea rosea est connu sous les noms vernaculaires de gonfolo rose, gonfolo-kwali, grignon fou, wosiwosi en Guyane, mandioqueira rosa au Brésil, yakopi au Guyana, bergi-gronfoeloe au Suriname ou mandioquiera (nom commercial)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de Quelea rosea est connu sous les noms vernaculaires de gonfolo rose, gonfolo-kwali, grignon fou, wosiwosi en Guyane, mandioqueira rosa au Brésil, yakopi au Guyana, bergi-gronfoeloe au Suriname ou mandioquiera (nom commercial).
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[5] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « QUALEA (roſea) floribus amplis, carneis. (Tabula 1.)
 Arbor trunco ſexaginta-pedali, in ſummitate ramos plures, nodoſos, latè &amp; undique ſparſos emittente ; ramuli oppoſiti. Folia oppoſita, glabra, rigida, pallidè virentia, ovata, acuta, obtuſa, nervo longitudinali ſubtùs prominente, &amp; nervulis lateralibus innumeris, parallelis inſignita ; Stipulæ binæ, laterales, ad baſim petiolorum, deciduæ. Flores paniculati, terminates, ramis &amp; ramulis oppoſitis ; Bracteæ binæ, exiguæ, deciduæ, ad baſim ramulorum.
 Plores expanſi odorem ſuaviſſimum latè ſpargunt.
